--- a/crm.sdet37/src/test/resources/data.xlsx
+++ b/crm.sdet37/src/test/resources/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\-hp-\Desktop\ECLIPSE 2106\crm.sdet37\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\-hp-\git\repository2\crm.sdet37\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="3840" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="4185" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="vtiger" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <sheet name="salesorder" sheetId="6" r:id="rId7"/>
     <sheet name="campaign" sheetId="7" r:id="rId8"/>
     <sheet name="documents" sheetId="8" r:id="rId9"/>
-    <sheet name="email" sheetId="9" r:id="rId10"/>
+    <sheet name="vendor" sheetId="11" r:id="rId10"/>
+    <sheet name="email" sheetId="9" r:id="rId11"/>
+    <sheet name="product" sheetId="12" r:id="rId12"/>
+    <sheet name="quotes" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="206">
   <si>
     <t>Testid</t>
   </si>
@@ -384,6 +387,273 @@
   </si>
   <si>
     <t>body</t>
+  </si>
+  <si>
+    <t>type dropdown</t>
+  </si>
+  <si>
+    <t>Existing Business</t>
+  </si>
+  <si>
+    <t>New Business</t>
+  </si>
+  <si>
+    <t>lead source</t>
+  </si>
+  <si>
+    <t>Cold Call</t>
+  </si>
+  <si>
+    <t>Existing Customer</t>
+  </si>
+  <si>
+    <t>Self Generated</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Public Relations</t>
+  </si>
+  <si>
+    <t>Direct Mail</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Trade Show</t>
+  </si>
+  <si>
+    <t>Web Site</t>
+  </si>
+  <si>
+    <t>Word of mouth</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>organizationdrop down</t>
+  </si>
+  <si>
+    <t>Apparel</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Not For Profit</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Othe</t>
+  </si>
+  <si>
+    <t>account name</t>
+  </si>
+  <si>
+    <t>PRIYA10</t>
+  </si>
+  <si>
+    <t>account type</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Competitor</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Integrator</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>Reseller</t>
+  </si>
+  <si>
+    <t>salutation type dropdown</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>pobox</t>
+  </si>
+  <si>
+    <t>bill code</t>
+  </si>
+  <si>
+    <t>vendor name</t>
+  </si>
+  <si>
+    <t>mohanty</t>
+  </si>
+  <si>
+    <t>pintu</t>
+  </si>
+  <si>
+    <t>moh</t>
+  </si>
+  <si>
+    <t>myphone</t>
+  </si>
+  <si>
+    <t>SUZUKI</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>Accounts&amp;action</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>HANZO</t>
+  </si>
+  <si>
+    <t>FERRAI</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>quotesname</t>
   </si>
 </sst>
 </file>
@@ -1143,15 +1413,46 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="2" sqref="C1 B1 A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1160,6 +1461,73 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1169,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,9 +1549,14 @@
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,8 +1581,23 @@
       <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1234,8 +1622,23 @@
       <c r="H2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1260,8 +1663,17 @@
       <c r="H3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1286,8 +1698,14 @@
       <c r="H4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1312,8 +1730,14 @@
       <c r="H5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1338,10 +1762,159 @@
       <c r="H6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1495,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,6 +2078,7 @@
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,6 +2093,46 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,20 +2145,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -1553,6 +2169,81 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1562,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="8" sqref="I1 H1 G1 F1 E1 D1 C1 B1 A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,9 +2267,10 @@
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="11" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1605,6 +2297,56 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
@@ -1614,10 +2356,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="B1 A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,6 +2376,11 @@
         <v>86</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1641,13 +2388,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="B1 A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1657,6 +2407,14 @@
         <v>114</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
